--- a/trunk/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/vms_pmp_effort_v0.1a.xlsx
+++ b/trunk/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/vms_pmp_effort_v0.1a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="VMS -Effort estimation" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
   <si>
     <t>Project Planning</t>
   </si>
@@ -1008,9 +1008,6 @@
   </si>
   <si>
     <t>Feng Yan (DL)</t>
-  </si>
-  <si>
-    <t>2,5</t>
   </si>
   <si>
     <t>Activity Description</t>
@@ -1243,15 +1240,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1326,6 +1314,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,73 +1627,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I63" sqref="A1:I63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9" style="25" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9" style="22" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="30.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="H2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1705,15 +1703,15 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1722,17 +1720,17 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>1.5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>1.5</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1741,15 +1739,15 @@
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1758,17 +1756,17 @@
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1777,17 +1775,27 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -1796,13 +1804,13 @@
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1811,19 +1819,19 @@
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>2.5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
         <v>5.5</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>5.5</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1832,17 +1840,17 @@
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>2.5</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1851,19 +1859,19 @@
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>1.5</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>1.5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>1.5</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -1872,13 +1880,13 @@
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1887,19 +1895,21 @@
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1908,19 +1918,21 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13">
+        <v>5</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5</v>
+      </c>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1929,19 +1941,21 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="13">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>5</v>
+      </c>
+      <c r="H16" s="13">
+        <v>5</v>
+      </c>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1950,19 +1964,21 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="17"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1971,21 +1987,21 @@
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1994,17 +2010,17 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2013,19 +2029,19 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -2034,17 +2050,17 @@
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13">
+        <v>5</v>
+      </c>
+      <c r="I21" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -2053,19 +2069,17 @@
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="C22" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2074,19 +2088,18 @@
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2095,17 +2108,19 @@
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
+        <v>5</v>
+      </c>
+      <c r="H24" s="13">
+        <v>5</v>
+      </c>
+      <c r="I24" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2114,19 +2129,17 @@
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="C25" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2135,17 +2148,17 @@
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -2154,19 +2167,19 @@
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="16">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -2175,19 +2188,27 @@
       <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="16">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="C28" s="13">
+        <v>2</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -2196,13 +2217,13 @@
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2211,17 +2232,17 @@
       <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16">
-        <v>1</v>
-      </c>
-      <c r="I30" s="17"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
+        <v>3</v>
+      </c>
+      <c r="H30" s="13">
+        <v>3</v>
+      </c>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2230,17 +2251,19 @@
       <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16">
-        <v>1</v>
-      </c>
-      <c r="I31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13">
+        <v>2</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2249,17 +2272,23 @@
       <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16">
-        <v>1</v>
-      </c>
-      <c r="H32" s="16">
-        <v>1</v>
-      </c>
-      <c r="I32" s="17"/>
+      <c r="C32" s="13">
+        <v>3</v>
+      </c>
+      <c r="D32" s="13">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2268,17 +2297,23 @@
       <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16">
-        <v>1</v>
-      </c>
-      <c r="H33" s="16">
-        <v>1</v>
-      </c>
-      <c r="I33" s="17"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13">
+        <v>4</v>
+      </c>
+      <c r="F33" s="13">
+        <v>4</v>
+      </c>
+      <c r="G33" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="H33" s="13">
+        <v>4</v>
+      </c>
+      <c r="I33" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -2287,17 +2322,17 @@
       <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="16">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -2306,17 +2341,23 @@
       <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16">
-        <v>1</v>
-      </c>
-      <c r="H35" s="16">
-        <v>1</v>
-      </c>
-      <c r="I35" s="17"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G35" s="13">
+        <v>5</v>
+      </c>
+      <c r="H35" s="13">
+        <v>5</v>
+      </c>
+      <c r="I35" s="14">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -2325,19 +2366,19 @@
       <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="16">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -2346,13 +2387,13 @@
       <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2361,26 +2402,26 @@
       <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="16">
-        <v>5</v>
-      </c>
-      <c r="D38" s="16">
-        <v>5</v>
-      </c>
-      <c r="E38" s="16">
+      <c r="C38" s="13">
         <v>10</v>
       </c>
-      <c r="F38" s="16">
-        <v>20</v>
-      </c>
-      <c r="G38" s="16">
-        <v>5</v>
-      </c>
-      <c r="H38" s="16">
-        <v>20</v>
-      </c>
-      <c r="I38" s="17">
-        <v>15</v>
+      <c r="D38" s="13">
+        <v>10</v>
+      </c>
+      <c r="E38" s="13">
+        <v>10</v>
+      </c>
+      <c r="F38" s="13">
+        <v>10</v>
+      </c>
+      <c r="G38" s="13">
+        <v>10</v>
+      </c>
+      <c r="H38" s="13">
+        <v>10</v>
+      </c>
+      <c r="I38" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,25 +2431,25 @@
       <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="16">
-        <v>5</v>
-      </c>
-      <c r="D39" s="16">
-        <v>5</v>
-      </c>
-      <c r="E39" s="16">
-        <v>5</v>
-      </c>
-      <c r="F39" s="16">
-        <v>5</v>
-      </c>
-      <c r="G39" s="16">
-        <v>5</v>
-      </c>
-      <c r="H39" s="16">
-        <v>5</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="C39" s="13">
+        <v>5</v>
+      </c>
+      <c r="D39" s="13">
+        <v>5</v>
+      </c>
+      <c r="E39" s="13">
+        <v>5</v>
+      </c>
+      <c r="F39" s="13">
+        <v>5</v>
+      </c>
+      <c r="G39" s="13">
+        <v>5</v>
+      </c>
+      <c r="H39" s="13">
+        <v>5</v>
+      </c>
+      <c r="I39" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2419,25 +2460,25 @@
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="16">
-        <v>5</v>
-      </c>
-      <c r="D40" s="16">
-        <v>5</v>
-      </c>
-      <c r="E40" s="16">
-        <v>10</v>
-      </c>
-      <c r="F40" s="16">
-        <v>5</v>
-      </c>
-      <c r="G40" s="16">
-        <v>10</v>
-      </c>
-      <c r="H40" s="16">
-        <v>10</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="C40" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="13">
+        <v>5</v>
+      </c>
+      <c r="E40" s="13">
+        <v>5</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G40" s="13">
+        <v>5</v>
+      </c>
+      <c r="H40" s="13">
+        <v>5</v>
+      </c>
+      <c r="I40" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2448,13 +2489,13 @@
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2463,18 +2504,18 @@
       <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17" t="s">
-        <v>114</v>
+      <c r="C42" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14">
+        <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,18 +2525,18 @@
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="16">
-        <v>1</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17">
-        <v>1.5</v>
+      <c r="C43" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14">
+        <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2505,15 +2546,17 @@
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
-        <v>5</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2524,16 +2567,18 @@
       <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16">
-        <v>1</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17">
-        <v>1</v>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13">
+        <v>2</v>
+      </c>
+      <c r="H45" s="13">
+        <v>2</v>
+      </c>
+      <c r="I45" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,17 +2588,21 @@
       <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="F46" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13">
+        <v>3</v>
+      </c>
+      <c r="F46" s="13">
+        <v>3</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -2562,16 +2611,20 @@
       <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16">
-        <v>1</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17">
-        <v>1</v>
+      <c r="C47" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14">
+        <v>2.5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2581,15 +2634,19 @@
       <c r="B48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16">
-        <v>1</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17">
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2600,18 +2657,24 @@
       <c r="B49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="16">
-        <v>1</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16">
-        <v>1</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17">
-        <v>1</v>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13">
+        <v>5</v>
+      </c>
+      <c r="G49" s="13">
+        <v>5</v>
+      </c>
+      <c r="H49" s="13">
+        <v>5</v>
+      </c>
+      <c r="I49" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2621,13 +2684,13 @@
       <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -2636,18 +2699,18 @@
       <c r="B51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16">
-        <v>1</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17">
-        <v>1</v>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13">
+        <v>2</v>
+      </c>
+      <c r="H51" s="13">
+        <v>2</v>
+      </c>
+      <c r="I51" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2657,17 +2720,17 @@
       <c r="B52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="F52" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -2676,18 +2739,20 @@
       <c r="B53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="16">
-        <v>5</v>
-      </c>
-      <c r="D53" s="16">
-        <v>5</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17">
-        <v>5</v>
+      <c r="C53" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14">
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2697,22 +2762,24 @@
       <c r="B54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="16">
-        <v>1</v>
-      </c>
-      <c r="D54" s="16">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16">
-        <v>1</v>
-      </c>
-      <c r="H54" s="16">
-        <v>1</v>
-      </c>
-      <c r="I54" s="17">
-        <v>1</v>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13">
+        <v>5</v>
+      </c>
+      <c r="G54" s="13">
+        <v>5</v>
+      </c>
+      <c r="H54" s="13">
+        <v>5</v>
+      </c>
+      <c r="I54" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2722,13 +2789,13 @@
       <c r="B55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -2737,17 +2804,17 @@
       <c r="B56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="16">
-        <v>1</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="C56" s="13">
+        <v>3</v>
+      </c>
+      <c r="D56" s="13">
+        <v>3</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -2756,17 +2823,17 @@
       <c r="B57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16">
-        <v>1</v>
-      </c>
-      <c r="H57" s="16">
-        <v>1</v>
-      </c>
-      <c r="I57" s="17"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -2775,19 +2842,19 @@
       <c r="B58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="16">
-        <v>1</v>
-      </c>
-      <c r="D58" s="16">
-        <v>1</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16">
-        <v>1</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="C58" s="13">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -2796,89 +2863,99 @@
       <c r="B59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="16">
-        <v>1</v>
-      </c>
-      <c r="D59" s="16">
-        <v>1</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="C59" s="13">
+        <v>2</v>
+      </c>
+      <c r="D59" s="13">
+        <v>2</v>
+      </c>
+      <c r="E59" s="13">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1</v>
+      </c>
+      <c r="H59" s="13">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="22"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="18">
         <f>SUM(C4:C60)</f>
-        <v>47.5</v>
-      </c>
-      <c r="D61" s="21">
+        <v>66</v>
+      </c>
+      <c r="D61" s="18">
         <f t="shared" ref="D61:I61" si="0">SUM(D4:D59)</f>
-        <v>42</v>
-      </c>
-      <c r="E61" s="21">
+        <v>62.5</v>
+      </c>
+      <c r="E61" s="18">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F61" s="21">
+        <v>76.5</v>
+      </c>
+      <c r="F61" s="18">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="G61" s="21">
+        <v>75.5</v>
+      </c>
+      <c r="G61" s="18">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="H61" s="21">
+        <v>90.5</v>
+      </c>
+      <c r="H61" s="18">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I61" s="22">
+        <v>86</v>
+      </c>
+      <c r="I61" s="19">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="20">
         <f>SUM(C61:I61)</f>
-        <v>337</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="24"/>
+        <v>531.5</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
     </row>
   </sheetData>
   <sortState ref="A1:B11">
@@ -2896,59 +2973,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9" style="25" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9" style="22" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="30.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2957,13 +3034,13 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2972,13 +3049,13 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -2987,13 +3064,13 @@
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -3002,13 +3079,13 @@
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3017,13 +3094,13 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -3032,13 +3109,13 @@
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3047,13 +3124,13 @@
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3062,13 +3139,13 @@
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3077,13 +3154,13 @@
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -3092,13 +3169,13 @@
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3107,13 +3184,13 @@
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3122,13 +3199,13 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3137,13 +3214,13 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3152,13 +3229,13 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3167,13 +3244,13 @@
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -3182,13 +3259,13 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3197,13 +3274,13 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3212,13 +3289,13 @@
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3227,13 +3304,13 @@
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3242,13 +3319,13 @@
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3257,13 +3334,13 @@
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3272,13 +3349,13 @@
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3287,13 +3364,13 @@
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3302,13 +3379,13 @@
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3317,13 +3394,13 @@
       <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -3332,13 +3409,13 @@
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3347,13 +3424,13 @@
       <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3362,13 +3439,13 @@
       <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3377,13 +3454,13 @@
       <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3392,13 +3469,13 @@
       <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3407,13 +3484,13 @@
       <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -3422,13 +3499,13 @@
       <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3437,13 +3514,13 @@
       <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -3452,13 +3529,13 @@
       <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -3467,13 +3544,13 @@
       <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3482,13 +3559,13 @@
       <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -3497,13 +3574,13 @@
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -3512,13 +3589,13 @@
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -3527,13 +3604,13 @@
       <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -3542,13 +3619,13 @@
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -3557,13 +3634,13 @@
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -3572,13 +3649,13 @@
       <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -3587,13 +3664,13 @@
       <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -3602,13 +3679,13 @@
       <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3617,13 +3694,13 @@
       <c r="B48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -3632,13 +3709,13 @@
       <c r="B49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -3647,13 +3724,13 @@
       <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -3662,13 +3739,13 @@
       <c r="B51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -3677,13 +3754,13 @@
       <c r="B52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -3692,13 +3769,13 @@
       <c r="B53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -3707,13 +3784,13 @@
       <c r="B54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -3722,13 +3799,13 @@
       <c r="B55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -3737,13 +3814,13 @@
       <c r="B56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -3752,13 +3829,13 @@
       <c r="B57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -3767,28 +3844,28 @@
       <c r="B58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>

--- a/trunk/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/vms_pmp_effort_v0.1a.xlsx
+++ b/trunk/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/vms_pmp_effort_v0.1a.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VMS -Effort estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Project Milestones" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">'Project Milestones'!$I$3</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="168">
   <si>
     <t>Project Planning</t>
   </si>
@@ -1026,13 +1027,748 @@
   </si>
   <si>
     <t>PROJECT MILESTONES</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.4.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.5.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.4.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.5.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.6.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.7.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.8.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.9.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.10. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.11. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.12. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.13. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.14. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.15. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.4.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.5.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.6.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.7.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.4.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.5.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.6.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.7.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.8.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.4.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.1.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.2.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.3.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.4.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,6 +1806,45 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1097,7 +1872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1201,11 +1976,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1234,15 +2022,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1258,18 +2040,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1294,12 +2064,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1323,6 +2087,120 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,1337 +2503,1327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="30.42578125" style="4"/>
+    <col min="1" max="1" width="7.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="30.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="50">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="50">
         <v>1.5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="50">
         <v>1.5</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50">
+        <v>4</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="50">
+        <v>2</v>
+      </c>
+      <c r="D8" s="50">
+        <v>2</v>
+      </c>
+      <c r="E8" s="50">
+        <v>1</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1</v>
+      </c>
+      <c r="H8" s="50">
+        <v>1</v>
+      </c>
+      <c r="I8" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
+        <v>2</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="50">
+        <v>5.5</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50">
+        <v>3</v>
+      </c>
+      <c r="F11" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52">
+        <v>3</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50">
+        <v>5</v>
+      </c>
+      <c r="F14" s="50">
+        <v>5</v>
+      </c>
+      <c r="G14" s="50">
+        <v>5</v>
+      </c>
+      <c r="H14" s="50">
+        <v>5</v>
+      </c>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50">
+        <v>5</v>
+      </c>
+      <c r="F15" s="50">
+        <v>5</v>
+      </c>
+      <c r="G15" s="50">
+        <v>5</v>
+      </c>
+      <c r="H15" s="50">
+        <v>5</v>
+      </c>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50">
+        <v>5</v>
+      </c>
+      <c r="F16" s="50">
+        <v>5</v>
+      </c>
+      <c r="G16" s="50">
+        <v>5</v>
+      </c>
+      <c r="H16" s="50">
+        <v>5</v>
+      </c>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="50">
+        <v>2</v>
+      </c>
+      <c r="D18" s="50">
+        <v>2</v>
+      </c>
+      <c r="E18" s="50">
+        <v>2</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50">
+        <v>2</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50">
+        <v>3</v>
+      </c>
+      <c r="H19" s="50">
+        <v>3</v>
+      </c>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="50">
+        <v>2</v>
+      </c>
+      <c r="D20" s="50">
+        <v>2</v>
+      </c>
+      <c r="E20" s="50">
+        <v>2</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50">
+        <v>5</v>
+      </c>
+      <c r="I21" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50">
+        <v>5</v>
+      </c>
+      <c r="H24" s="50">
+        <v>5</v>
+      </c>
+      <c r="I24" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="50">
+        <v>2</v>
+      </c>
+      <c r="D27" s="50">
+        <v>1</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="50">
+        <v>2</v>
+      </c>
+      <c r="D28" s="50">
+        <v>2</v>
+      </c>
+      <c r="E28" s="50">
+        <v>1</v>
+      </c>
+      <c r="F28" s="50">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50">
+        <v>1</v>
+      </c>
+      <c r="H28" s="50">
+        <v>1</v>
+      </c>
+      <c r="I28" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52">
+        <v>4</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50">
+        <v>3</v>
+      </c>
+      <c r="H30" s="50">
+        <v>3</v>
+      </c>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50">
+        <v>2</v>
+      </c>
+      <c r="F31" s="50">
+        <v>2</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="50">
+        <v>3</v>
+      </c>
+      <c r="D32" s="50">
+        <v>3</v>
+      </c>
+      <c r="E32" s="50">
+        <v>3</v>
+      </c>
+      <c r="F32" s="50">
+        <v>3</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50">
+        <v>4</v>
+      </c>
+      <c r="F33" s="50">
+        <v>4</v>
+      </c>
+      <c r="G33" s="50">
+        <v>4.5</v>
+      </c>
+      <c r="H33" s="50">
+        <v>4</v>
+      </c>
+      <c r="I33" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="G35" s="50">
+        <v>5</v>
+      </c>
+      <c r="H35" s="50">
+        <v>5</v>
+      </c>
+      <c r="I35" s="51">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="50">
+        <v>1</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50">
+        <v>1</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52">
+        <v>5</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="50">
+        <v>10</v>
+      </c>
+      <c r="D38" s="50">
+        <v>10</v>
+      </c>
+      <c r="E38" s="50">
+        <v>10</v>
+      </c>
+      <c r="F38" s="50">
+        <v>10</v>
+      </c>
+      <c r="G38" s="50">
+        <v>10</v>
+      </c>
+      <c r="H38" s="50">
+        <v>10</v>
+      </c>
+      <c r="I38" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="50">
+        <v>5</v>
+      </c>
+      <c r="D39" s="50">
+        <v>5</v>
+      </c>
+      <c r="E39" s="50">
+        <v>5</v>
+      </c>
+      <c r="F39" s="50">
+        <v>5</v>
+      </c>
+      <c r="G39" s="50">
+        <v>5</v>
+      </c>
+      <c r="H39" s="50">
+        <v>5</v>
+      </c>
+      <c r="I39" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="50">
+        <v>5</v>
+      </c>
+      <c r="E40" s="50">
+        <v>5</v>
+      </c>
+      <c r="F40" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="G40" s="50">
+        <v>5</v>
+      </c>
+      <c r="H40" s="50">
+        <v>5</v>
+      </c>
+      <c r="I40" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52">
+        <v>6</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="50">
+        <v>1</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50">
+        <v>1</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="50">
+        <v>1</v>
+      </c>
+      <c r="D43" s="50">
+        <v>1</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50">
+        <v>2</v>
+      </c>
+      <c r="H45" s="50">
+        <v>2</v>
+      </c>
+      <c r="I45" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="50">
+        <v>1</v>
+      </c>
+      <c r="D46" s="50">
+        <v>1</v>
+      </c>
+      <c r="E46" s="50">
+        <v>3</v>
+      </c>
+      <c r="F46" s="50">
+        <v>3</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="D47" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50">
+        <v>1</v>
+      </c>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="50">
+        <v>1</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1</v>
+      </c>
+      <c r="E48" s="50">
+        <v>1</v>
+      </c>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1</v>
+      </c>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50">
+        <v>5</v>
+      </c>
+      <c r="G49" s="50">
+        <v>5</v>
+      </c>
+      <c r="H49" s="50">
+        <v>5</v>
+      </c>
+      <c r="I49" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="56">
+        <v>7</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50">
+        <v>2</v>
+      </c>
+      <c r="H51" s="50">
+        <v>2</v>
+      </c>
+      <c r="I51" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50">
+        <v>1</v>
+      </c>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="50">
+        <v>1</v>
+      </c>
+      <c r="D54" s="50">
+        <v>1</v>
+      </c>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50">
+        <v>5</v>
+      </c>
+      <c r="G54" s="50">
+        <v>5</v>
+      </c>
+      <c r="H54" s="50">
+        <v>5</v>
+      </c>
+      <c r="I54" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="69"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="50">
+        <v>4</v>
+      </c>
+      <c r="D56" s="50">
+        <v>4</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="51"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50">
+        <v>1</v>
+      </c>
+      <c r="H57" s="50">
+        <v>1</v>
+      </c>
+      <c r="I57" s="51"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="50">
+        <v>1</v>
+      </c>
+      <c r="D58" s="50">
+        <v>1</v>
+      </c>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50">
+        <v>1</v>
+      </c>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="50">
+        <v>2</v>
+      </c>
+      <c r="D59" s="50">
+        <v>2</v>
+      </c>
+      <c r="E59" s="50">
+        <v>1</v>
+      </c>
+      <c r="F59" s="50">
+        <v>1</v>
+      </c>
+      <c r="G59" s="50">
+        <v>1</v>
+      </c>
+      <c r="H59" s="50">
+        <v>1</v>
+      </c>
+      <c r="I59" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="62"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="61">
+        <f>SUM(C4:C60)</f>
+        <v>64</v>
+      </c>
+      <c r="D61" s="61">
+        <f t="shared" ref="D61:I61" si="0">SUM(D4:D59)</f>
         <v>62</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="F10" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13">
-        <v>5</v>
-      </c>
-      <c r="H14" s="13">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
-        <v>5</v>
-      </c>
-      <c r="F15" s="13">
-        <v>5</v>
-      </c>
-      <c r="G15" s="13">
-        <v>5</v>
-      </c>
-      <c r="H15" s="13">
-        <v>5</v>
-      </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13">
-        <v>5</v>
-      </c>
-      <c r="H16" s="13">
-        <v>5</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G17" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="H17" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
-        <v>2</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
-        <v>3</v>
-      </c>
-      <c r="H19" s="13">
-        <v>3</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>2</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13">
-        <v>5</v>
-      </c>
-      <c r="I21" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
-        <v>5</v>
-      </c>
-      <c r="H24" s="13">
-        <v>5</v>
-      </c>
-      <c r="I24" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D25" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="H26" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="13">
-        <v>2</v>
-      </c>
-      <c r="D28" s="13">
-        <v>2</v>
-      </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>4</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
-        <v>3</v>
-      </c>
-      <c r="H30" s="13">
-        <v>3</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13">
-        <v>2</v>
-      </c>
-      <c r="F31" s="13">
-        <v>2</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13">
-        <v>3</v>
-      </c>
-      <c r="E32" s="13">
-        <v>3</v>
-      </c>
-      <c r="F32" s="13">
-        <v>3</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13">
-        <v>4</v>
-      </c>
-      <c r="F33" s="13">
-        <v>4</v>
-      </c>
-      <c r="G33" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="H33" s="13">
-        <v>4</v>
-      </c>
-      <c r="I33" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H34" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F35" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G35" s="13">
-        <v>5</v>
-      </c>
-      <c r="H35" s="13">
-        <v>5</v>
-      </c>
-      <c r="I35" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13">
-        <v>1</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>5</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="13">
-        <v>10</v>
-      </c>
-      <c r="D38" s="13">
-        <v>10</v>
-      </c>
-      <c r="E38" s="13">
-        <v>10</v>
-      </c>
-      <c r="F38" s="13">
-        <v>10</v>
-      </c>
-      <c r="G38" s="13">
-        <v>10</v>
-      </c>
-      <c r="H38" s="13">
-        <v>10</v>
-      </c>
-      <c r="I38" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="13">
-        <v>5</v>
-      </c>
-      <c r="D39" s="13">
-        <v>5</v>
-      </c>
-      <c r="E39" s="13">
-        <v>5</v>
-      </c>
-      <c r="F39" s="13">
-        <v>5</v>
-      </c>
-      <c r="G39" s="13">
-        <v>5</v>
-      </c>
-      <c r="H39" s="13">
-        <v>5</v>
-      </c>
-      <c r="I39" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D40" s="13">
-        <v>5</v>
-      </c>
-      <c r="E40" s="13">
-        <v>5</v>
-      </c>
-      <c r="F40" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G40" s="13">
-        <v>5</v>
-      </c>
-      <c r="H40" s="13">
-        <v>5</v>
-      </c>
-      <c r="I40" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>6</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D43" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F44" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13">
-        <v>2</v>
-      </c>
-      <c r="H45" s="13">
-        <v>2</v>
-      </c>
-      <c r="I45" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
-        <v>3</v>
-      </c>
-      <c r="F46" s="13">
-        <v>3</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D47" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13">
-        <v>1</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13">
-        <v>5</v>
-      </c>
-      <c r="G49" s="13">
-        <v>5</v>
-      </c>
-      <c r="H49" s="13">
-        <v>5</v>
-      </c>
-      <c r="I49" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>7</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13">
-        <v>2</v>
-      </c>
-      <c r="H51" s="13">
-        <v>2</v>
-      </c>
-      <c r="I51" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F52" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D53" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13">
-        <v>1</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13">
-        <v>5</v>
-      </c>
-      <c r="G54" s="13">
-        <v>5</v>
-      </c>
-      <c r="H54" s="13">
-        <v>5</v>
-      </c>
-      <c r="I54" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="13">
-        <v>3</v>
-      </c>
-      <c r="D56" s="13">
-        <v>3</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13">
-        <v>1</v>
-      </c>
-      <c r="H57" s="13">
-        <v>1</v>
-      </c>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="13">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13">
-        <v>1</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="13">
-        <v>2</v>
-      </c>
-      <c r="D59" s="13">
-        <v>2</v>
-      </c>
-      <c r="E59" s="13">
-        <v>1</v>
-      </c>
-      <c r="F59" s="13">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13">
-        <v>1</v>
-      </c>
-      <c r="H59" s="13">
-        <v>1</v>
-      </c>
-      <c r="I59" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="18">
-        <f>SUM(C4:C60)</f>
-        <v>66</v>
-      </c>
-      <c r="D61" s="18">
-        <f t="shared" ref="D61:I61" si="0">SUM(D4:D59)</f>
-        <v>62.5</v>
-      </c>
-      <c r="E61" s="18">
+      <c r="E61" s="61">
         <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="61">
         <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="61">
         <f t="shared" si="0"/>
-        <v>90.5</v>
-      </c>
-      <c r="H61" s="18">
+        <v>89</v>
+      </c>
+      <c r="H61" s="61">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="62">
         <f t="shared" si="0"/>
-        <v>74.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="31" t="s">
+      <c r="A62" s="63"/>
+      <c r="B62" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C62" s="65">
         <f>SUM(C61:I61)</f>
-        <v>531.5</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
+        <v>524.5</v>
+      </c>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="66"/>
     </row>
   </sheetData>
   <sortState ref="A1:B11">
@@ -2980,52 +3848,52 @@
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9" style="22" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9" style="16" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="30.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3034,13 +3902,13 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3049,13 +3917,13 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -3064,13 +3932,13 @@
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -3079,13 +3947,13 @@
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3094,28 +3962,28 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3124,13 +3992,13 @@
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3139,13 +4007,13 @@
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3154,28 +4022,28 @@
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3184,13 +4052,13 @@
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3199,13 +4067,13 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3214,13 +4082,13 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3229,13 +4097,13 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3244,13 +4112,13 @@
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -3259,13 +4127,13 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3274,13 +4142,13 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3289,13 +4157,13 @@
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3304,13 +4172,13 @@
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3319,13 +4187,13 @@
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3334,13 +4202,13 @@
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3349,13 +4217,13 @@
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3364,13 +4232,13 @@
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3379,13 +4247,13 @@
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3394,28 +4262,28 @@
       <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>4</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3424,13 +4292,13 @@
       <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3439,13 +4307,13 @@
       <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3454,13 +4322,13 @@
       <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3469,13 +4337,13 @@
       <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3484,13 +4352,13 @@
       <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -3499,13 +4367,13 @@
       <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3514,28 +4382,28 @@
       <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -3544,13 +4412,13 @@
       <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3559,13 +4427,13 @@
       <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -3574,28 +4442,28 @@
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -3604,13 +4472,13 @@
       <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -3619,13 +4487,13 @@
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -3634,13 +4502,13 @@
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -3649,13 +4517,13 @@
       <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -3664,13 +4532,13 @@
       <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -3679,13 +4547,13 @@
       <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3694,13 +4562,13 @@
       <c r="B48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -3709,13 +4577,13 @@
       <c r="B49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -3724,13 +4592,13 @@
       <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -3739,13 +4607,13 @@
       <c r="B51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -3754,13 +4622,13 @@
       <c r="B52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -3769,13 +4637,13 @@
       <c r="B53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -3784,13 +4652,13 @@
       <c r="B54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -3799,13 +4667,13 @@
       <c r="B55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -3814,13 +4682,13 @@
       <c r="B56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -3829,13 +4697,13 @@
       <c r="B57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="14"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -3844,28 +4712,28 @@
       <c r="B58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="36"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
@@ -3914,4 +4782,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>210</f>
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>